--- a/uploads/2021_Volunteers_2.xlsx
+++ b/uploads/2021_Volunteers_2.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lincoln Uni\Computing\639\pj2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55555154-915C-4DC2-B204-9C6BF13CB139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0009E2-9E64-4EC4-857E-67D5EE3CB6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Volunteer Details" sheetId="1" r:id="rId1"/>
     <sheet name="Volunteer Hours" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="72">
   <si>
     <t>ID</t>
   </si>
@@ -202,6 +202,12 @@
     <t>male</t>
   </si>
   <si>
+    <t>cccc</t>
+  </si>
+  <si>
+    <t>dddd</t>
+  </si>
+  <si>
     <t>Volunteer Hours</t>
   </si>
   <si>
@@ -229,7 +235,13 @@
     <t>Total Hours</t>
   </si>
   <si>
-    <t>cccc</t>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>SSS</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -710,15 +722,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL11"/>
+  <dimension ref="A1:AL17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.21875" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" style="17" bestFit="1" customWidth="1"/>
@@ -1650,9 +1662,10 @@
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
-        <v>1</v>
-      </c>
+      <c r="A11">
+        <v>10028</v>
+      </c>
+      <c r="B11"/>
       <c r="C11" t="s">
         <v>38</v>
       </c>
@@ -1666,10 +1679,10 @@
         <v>165654</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="I11" t="s">
         <v>56</v>
@@ -1690,6 +1703,393 @@
       </c>
       <c r="P11" t="s">
         <v>40</v>
+      </c>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
+      <c r="AL11"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10029</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12">
+        <v>165654</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="19">
+        <v>37145</v>
+      </c>
+      <c r="L12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10030</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13">
+        <v>1677764</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="19">
+        <v>37145</v>
+      </c>
+      <c r="L13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10031</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14">
+        <v>1677764</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="19">
+        <v>37145</v>
+      </c>
+      <c r="L14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+      <c r="AK14"/>
+      <c r="AL14"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10032</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15">
+        <v>1677764</v>
+      </c>
+      <c r="G15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="19">
+        <v>37145</v>
+      </c>
+      <c r="L15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+      <c r="AK15"/>
+      <c r="AL15"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>10034</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16">
+        <v>1677764</v>
+      </c>
+      <c r="G16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="19">
+        <v>37145</v>
+      </c>
+      <c r="L16" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16" t="s">
+        <v>40</v>
+      </c>
+      <c r="P16" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
+      <c r="AL16"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="17">
+        <v>11</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="19">
+        <v>37145</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1700,10 +2100,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1713,62 +2113,47 @@
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="5.6640625" customWidth="1"/>
+    <col min="6" max="7" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-    </row>
-    <row r="4" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="H3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
       <c r="C4" s="8"/>
       <c r="D4" s="4"/>
@@ -1779,41 +2164,28 @@
       <c r="G4" s="20">
         <v>44166</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <v>44523</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="19">
         <v>44532</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-    </row>
-    <row r="5" spans="1:22" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" s="12" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F5" s="9">
         <v>10009</v>
@@ -1821,27 +2193,14 @@
       <c r="G5" s="9">
         <v>10010</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5">
         <v>10011</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5">
         <v>10012</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-    </row>
-    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18">
         <v>10019</v>
       </c>
@@ -1861,14 +2220,14 @@
       <c r="G6" s="3">
         <v>5</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6">
         <v>4</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10020</v>
       </c>
@@ -1888,14 +2247,14 @@
       <c r="G7" s="3">
         <v>3</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10021</v>
       </c>
@@ -1921,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10022</v>
       </c>
@@ -1947,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10023</v>
       </c>
@@ -1973,7 +2332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10024</v>
       </c>
@@ -1999,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10025</v>
       </c>
@@ -2025,7 +2384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10026</v>
       </c>
@@ -2051,7 +2410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10027</v>
       </c>
@@ -2075,6 +2434,144 @@
       </c>
       <c r="I14">
         <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10028</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>10029</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>10030</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>10031</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>10032</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>10034</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
